--- a/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2012-至今)/财务费用.xlsx
+++ b/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2012-至今)/财务费用.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ10"/>
+  <dimension ref="A1:AQ12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1842,6 +1842,272 @@
         <v>165.98</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>264.54</v>
+      </c>
+      <c r="C11" t="n">
+        <v>51.77</v>
+      </c>
+      <c r="D11" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F11" t="n">
+        <v>356.4</v>
+      </c>
+      <c r="G11" t="n">
+        <v>825.7</v>
+      </c>
+      <c r="H11" t="n">
+        <v>121.23</v>
+      </c>
+      <c r="I11" t="n">
+        <v>193.19</v>
+      </c>
+      <c r="J11" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="K11" t="n">
+        <v>56.27</v>
+      </c>
+      <c r="L11" t="n">
+        <v>59.95</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="N11" t="n">
+        <v>92.37</v>
+      </c>
+      <c r="O11" t="n">
+        <v>566.95</v>
+      </c>
+      <c r="P11" t="n">
+        <v>64.48</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="R11" t="n">
+        <v>219.83</v>
+      </c>
+      <c r="S11" t="n">
+        <v>201.38</v>
+      </c>
+      <c r="T11" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="U11" t="n">
+        <v>-85.31</v>
+      </c>
+      <c r="V11" t="n">
+        <v>898.34</v>
+      </c>
+      <c r="W11" t="n">
+        <v>105.71</v>
+      </c>
+      <c r="X11" t="n">
+        <v>2968.29</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>452.49</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>64.87</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>380.33</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>163.48</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>266.67</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>100.42</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>11428.25</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>431.75</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>262.84</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>161.28</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>48.32</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>14.16</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>339.29</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>62.34</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>582.79</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>70.34</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>97.84999999999999</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>555.41</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>176.17</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>133.3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="D12" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>367</v>
+      </c>
+      <c r="G12" t="n">
+        <v>701.5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>114.8</v>
+      </c>
+      <c r="I12" t="n">
+        <v>46</v>
+      </c>
+      <c r="J12" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="L12" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="N12" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="O12" t="n">
+        <v>473.8</v>
+      </c>
+      <c r="P12" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>59.1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>149.4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>234.8</v>
+      </c>
+      <c r="T12" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="U12" t="n">
+        <v>-92.59999999999999</v>
+      </c>
+      <c r="V12" t="n">
+        <v>775.5</v>
+      </c>
+      <c r="W12" t="n">
+        <v>126.1</v>
+      </c>
+      <c r="X12" t="n">
+        <v>3148.9</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>131.1</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>225.7</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>9850.299999999999</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>198.9</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>146.6</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>151.7</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>271.3</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>550.7</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>536.8</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>151.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
